--- a/Week 47/vishnu.xlsx
+++ b/Week 47/vishnu.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Milestone Toolkit\vishnu\Weekly Report\Nov\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Support Analysis\Week 47\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="29">
   <si>
     <t>CUSTOMER</t>
   </si>
@@ -80,9 +80,6 @@
     <t>update BMR report print object</t>
   </si>
   <si>
-    <t>21/10/2018</t>
-  </si>
-  <si>
     <t>22/11/2018</t>
   </si>
   <si>
@@ -105,6 +102,15 @@
   </si>
   <si>
     <t>print object modification</t>
+  </si>
+  <si>
+    <t>19/11/2018</t>
+  </si>
+  <si>
+    <t>20/11/2018</t>
+  </si>
+  <si>
+    <t>21/11/2018</t>
   </si>
 </sst>
 </file>
@@ -516,7 +522,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -677,7 +682,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -759,7 +763,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -920,7 +923,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1002,7 +1004,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1132,7 +1133,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3263,8 +3263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3306,7 +3306,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="13">
         <v>12.5</v>
@@ -3315,7 +3315,7 @@
     </row>
     <row r="4" spans="1:26" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E4" s="6"/>
     </row>
@@ -3350,7 +3350,7 @@
     </row>
     <row r="7" spans="1:26" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
@@ -3370,13 +3370,13 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="34" t="s">
-        <v>26</v>
-      </c>
       <c r="C9" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="13">
         <v>0.11</v>
@@ -3385,7 +3385,7 @@
     </row>
     <row r="11" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="8" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3427,7 +3427,7 @@
     </row>
     <row r="15" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="25"/>
@@ -3506,7 +3506,7 @@
         <v>8</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="35" t="s">
         <v>3</v>
@@ -3517,10 +3517,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="34" t="s">
         <v>21</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>22</v>
       </c>
       <c r="C21" s="35" t="s">
         <v>3</v>
@@ -3534,7 +3534,7 @@
         <v>8</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="35" t="s">
         <v>3</v>
@@ -3596,7 +3596,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" s="3">
         <v>0.31</v>
@@ -3608,7 +3608,7 @@
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="3">
         <v>0.11</v>
